--- a/Maze_FB_12c/maze.xlsx
+++ b/Maze_FB_12c/maze.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2024-25\Szoftver tesztelés\Maze_FB_12c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feket\Documents\Maze\Maze\Maze_FB_12c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B56223F-BC60-4BB2-8A53-BB180E378C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A691803D-DCD1-4A0A-8D0F-E6745BAC04D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22605" yWindow="0" windowWidth="6135" windowHeight="15600" xr2:uid="{92252654-3C28-41EB-8E35-26C4C577A96A}"/>
+    <workbookView xWindow="-10530" yWindow="-11640" windowWidth="20640" windowHeight="11160" xr2:uid="{92252654-3C28-41EB-8E35-26C4C577A96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>X</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
   </si>
   <si>
     <t>Y</t>
@@ -90,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -192,6 +189,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -529,22 +527,22 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="3.21875" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.25" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="3.125" customWidth="1"/>
-    <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" customWidth="1"/>
+    <col min="5" max="6" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.25" customHeight="1">
+    <row r="2" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -567,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.25" customHeight="1">
+    <row r="3" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -590,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="14.25" customHeight="1">
+    <row r="4" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -613,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1">
+    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -636,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.25" customHeight="1">
+    <row r="6" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -659,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.25" customHeight="1">
+    <row r="7" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -678,11 +676,11 @@
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="14.25" customHeight="1">
+      <c r="H7" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -705,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="14.25" customHeight="1">
+    <row r="10" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
@@ -724,11 +722,11 @@
       <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="14.25" customHeight="1">
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -751,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="14.25" customHeight="1">
+    <row r="12" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>20</v>
       </c>
@@ -774,7 +772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="14.25" customHeight="1">
+    <row r="13" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>30</v>
       </c>
@@ -797,7 +795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="14.25" customHeight="1">
+    <row r="14" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>40</v>
       </c>
@@ -820,7 +818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.25" customHeight="1">
+    <row r="15" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>50</v>
       </c>
@@ -843,7 +841,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="14.25" customHeight="1">
+    <row r="16" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>60</v>
       </c>
@@ -866,46 +864,46 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="14.25" customHeight="1">
+    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1">
+    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
